--- a/diaries/diary-Duo_Chai.xlsx
+++ b/diaries/diary-Duo_Chai.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aurora\Documents\W2020QT\diaries\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -27,8 +35,8 @@
   <si>
     <r>
       <rPr>
-        <i val="1"/>
-        <u val="single"/>
+        <i/>
+        <u/>
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
@@ -42,7 +50,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Times"/>
@@ -329,40 +337,33 @@
   <si>
     <t>For our previous homework report, we didn’t realize how the report structure will influence reader’s readability. We change the structure of our homework report and make the content more logical this time.</t>
   </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="60" formatCode="m/d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="177" formatCode="m/d"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="16"/>
       <color indexed="9"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Helvetica"/>
@@ -371,22 +372,23 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <i val="1"/>
-      <u val="single"/>
+      <i/>
+      <u/>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Times"/>
@@ -395,14 +397,16 @@
       <sz val="12"/>
       <color indexed="15"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="15"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="15"/>
       <name val="Helvetica"/>
@@ -413,13 +417,13 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="12"/>
       <color indexed="15"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="11"/>
       <color indexed="15"/>
       <name val="Helvetica"/>
@@ -428,6 +432,12 @@
       <sz val="11"/>
       <color indexed="15"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -553,163 +563,212 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="13" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="12" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="13" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff9c0006"/>
-      <rgbColor rgb="ffffc7ce"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff9c5700"/>
-      <rgbColor rgb="ffffeb9c"/>
-      <rgbColor rgb="ff0563c1"/>
-      <rgbColor rgb="ff006100"/>
-      <rgbColor rgb="ffc6efce"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF9C5700"/>
+      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -911,7 +970,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -930,7 +989,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -960,7 +1019,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -986,7 +1045,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1012,7 +1071,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1038,7 +1097,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1064,7 +1123,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1090,7 +1149,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1116,7 +1175,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1142,7 +1201,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1168,7 +1227,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1181,9 +1240,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1200,7 +1265,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1219,7 +1284,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,7 +1310,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,7 +1336,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1362,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1323,7 +1388,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,7 +1414,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1375,7 +1440,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1401,7 +1466,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,7 +1492,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1453,7 +1518,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1466,9 +1531,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1482,7 +1553,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1501,7 +1572,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1531,7 +1602,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1557,7 +1628,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1583,7 +1654,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1609,7 +1680,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1635,7 +1706,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1661,7 +1732,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1687,7 +1758,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1713,7 +1784,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1739,7 +1810,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1752,1475 +1823,1487 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV127"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="34.6719" style="1" customWidth="1"/>
-    <col min="8" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="7" width="34.7109375" style="1" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" ht="21" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" ht="15.5" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" ht="15.5" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="12">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" ht="15.5" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="12">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" ht="15.5" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="12">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" ht="15.5" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" ht="15.5" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" ht="15.5" customHeight="1">
-      <c r="A9" t="s" s="16">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="17">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="17">
+      <c r="C9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s" s="17">
+      <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s" s="17">
+      <c r="E9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s" s="17">
+      <c r="F9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s" s="18">
+      <c r="G9" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" ht="15.5" customHeight="1">
-      <c r="A10" t="s" s="19">
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s" s="20">
+      <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s" s="21">
+      <c r="C10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s" s="20">
+      <c r="D10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s" s="21">
+      <c r="E10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s" s="21">
+      <c r="F10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s" s="22">
+      <c r="G10" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="15.5" customHeight="1">
-      <c r="A11" t="s" s="23">
+    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s" s="20">
+      <c r="B11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s" s="20">
+      <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s" s="20">
+      <c r="D11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s" s="20">
+      <c r="E11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s" s="20">
+      <c r="F11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G11" t="s" s="24">
+      <c r="G11" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="15.5" customHeight="1">
-      <c r="A12" t="s" s="23">
+    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s" s="20">
+      <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s" s="20">
+      <c r="C12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s" s="20">
+      <c r="D12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s" s="20">
+      <c r="E12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F12" t="s" s="20">
+      <c r="F12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G12" t="s" s="24">
+      <c r="G12" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" ht="15.5" customHeight="1">
-      <c r="A13" t="s" s="23">
+    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s" s="20">
+      <c r="B13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s" s="20">
+      <c r="C13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D13" t="s" s="20">
+      <c r="D13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E13" t="s" s="20">
+      <c r="E13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F13" t="s" s="20">
+      <c r="F13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G13" t="s" s="24">
+      <c r="G13" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" ht="15.5" customHeight="1">
-      <c r="A14" t="s" s="23">
+    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s" s="20">
+      <c r="B14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s" s="20">
+      <c r="C14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s" s="20">
+      <c r="D14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E14" t="s" s="20">
+      <c r="E14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F14" t="s" s="20">
+      <c r="F14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G14" t="s" s="24">
+      <c r="G14" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" ht="15.5" customHeight="1">
-      <c r="A15" s="25">
+    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
         <v>43849</v>
       </c>
-      <c r="B15" t="s" s="20">
+      <c r="B15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s" s="20">
+      <c r="C15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s" s="20">
+      <c r="D15" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s" s="20">
+      <c r="E15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F15" t="s" s="20">
+      <c r="F15" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G15" t="s" s="24">
+      <c r="G15" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="15.5" customHeight="1">
-      <c r="A16" s="25">
+    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
         <v>43850</v>
       </c>
-      <c r="B16" t="s" s="20">
+      <c r="B16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s" s="20">
+      <c r="C16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s" s="20">
+      <c r="D16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E16" t="s" s="20">
+      <c r="E16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F16" t="s" s="20">
+      <c r="F16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G16" t="s" s="24">
+      <c r="G16" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" ht="15.5" customHeight="1">
-      <c r="A17" s="25">
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
         <v>43850</v>
       </c>
-      <c r="B17" t="s" s="20">
+      <c r="B17" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s" s="20">
+      <c r="C17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D17" t="s" s="20">
+      <c r="D17" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E17" t="s" s="20">
+      <c r="E17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F17" t="s" s="20">
+      <c r="F17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G17" t="s" s="24">
+      <c r="G17" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" ht="15.5" customHeight="1">
-      <c r="A18" s="26">
+    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
         <v>43851</v>
       </c>
-      <c r="B18" t="s" s="21">
+      <c r="B18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C18" t="s" s="21">
+      <c r="C18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s" s="20">
+      <c r="D18" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E18" t="s" s="20">
+      <c r="E18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F18" t="s" s="20">
+      <c r="F18" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G18" t="s" s="24">
+      <c r="G18" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" ht="15.5" customHeight="1">
-      <c r="A19" s="26">
+    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
         <v>43853</v>
       </c>
-      <c r="B19" t="s" s="20">
+      <c r="B19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s" s="21">
+      <c r="C19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D19" t="s" s="27">
+      <c r="D19" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E19" t="s" s="27">
+      <c r="E19" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F19" t="s" s="27">
+      <c r="F19" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G19" t="s" s="28">
+      <c r="G19" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" ht="15.5" customHeight="1">
-      <c r="A20" s="25">
+    <row r="20" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
         <v>43854</v>
       </c>
-      <c r="B20" t="s" s="29">
+      <c r="B20" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C20" t="s" s="20">
+      <c r="C20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D20" t="s" s="21">
+      <c r="D20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E20" t="s" s="20">
+      <c r="E20" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F20" t="s" s="20">
+      <c r="F20" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G20" t="s" s="24">
+      <c r="G20" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" ht="15.5" customHeight="1">
-      <c r="A21" s="25">
+    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
         <v>43857</v>
       </c>
-      <c r="B21" t="s" s="20">
+      <c r="B21" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s" s="20">
+      <c r="C21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D21" t="s" s="21">
+      <c r="D21" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E21" t="s" s="20">
+      <c r="E21" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F21" t="s" s="20">
+      <c r="F21" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G21" t="s" s="24">
+      <c r="G21" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" ht="15.5" customHeight="1">
-      <c r="A22" s="25">
+    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
         <v>43858</v>
       </c>
-      <c r="B22" t="s" s="20">
+      <c r="B22" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C22" t="s" s="20">
+      <c r="C22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D22" t="s" s="30">
+      <c r="D22" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E22" t="s" s="20">
+      <c r="E22" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F22" t="s" s="20">
+      <c r="F22" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G22" t="s" s="24">
+      <c r="G22" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" ht="15.5" customHeight="1">
-      <c r="A23" s="25">
+    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
         <v>43859</v>
       </c>
-      <c r="B23" t="s" s="20">
+      <c r="B23" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C23" t="s" s="20">
+      <c r="C23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D23" t="s" s="31">
+      <c r="D23" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E23" t="s" s="20">
+      <c r="E23" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F23" t="s" s="20">
+      <c r="F23" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G23" t="s" s="24">
+      <c r="G23" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" ht="15.5" customHeight="1">
-      <c r="A24" s="25">
+    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
         <v>43860</v>
       </c>
-      <c r="B24" t="s" s="20">
+      <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" t="s" s="20">
+      <c r="C24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D24" t="s" s="27">
+      <c r="D24" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E24" t="s" s="27">
+      <c r="E24" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F24" t="s" s="27">
+      <c r="F24" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G24" t="s" s="32">
+      <c r="G24" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="15.5" customHeight="1">
-      <c r="A25" s="33">
+    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
         <v>43866</v>
       </c>
-      <c r="B25" t="s" s="20">
+      <c r="B25" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C25" t="s" s="20">
+      <c r="C25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D25" t="s" s="27">
+      <c r="D25" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E25" t="s" s="27">
+      <c r="E25" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F25" t="s" s="20">
+      <c r="F25" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G25" t="s" s="32">
+      <c r="G25" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="15.5" customHeight="1">
-      <c r="A26" s="25">
+    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
         <v>43867</v>
       </c>
-      <c r="B26" t="s" s="20">
+      <c r="B26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C26" t="s" s="20">
+      <c r="C26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D26" t="s" s="20">
+      <c r="D26" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E26" t="s" s="27">
+      <c r="E26" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F26" t="s" s="20">
+      <c r="F26" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G26" t="s" s="32">
+      <c r="G26" s="26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" ht="15.5" customHeight="1">
-      <c r="A27" s="25">
+    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
         <v>43874</v>
       </c>
-      <c r="B27" t="s" s="29">
+      <c r="B27" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C27" t="s" s="20">
+      <c r="C27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D27" t="s" s="20">
+      <c r="D27" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E27" t="s" s="20">
+      <c r="E27" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F27" t="s" s="20">
+      <c r="F27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G27" t="s" s="24">
+      <c r="G27" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" ht="15.5" customHeight="1">
-      <c r="A28" s="25">
+    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
         <v>43880</v>
       </c>
-      <c r="B28" t="s" s="20">
+      <c r="B28" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C28" t="s" s="20">
+      <c r="C28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D28" t="s" s="20">
+      <c r="D28" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E28" t="s" s="20">
+      <c r="E28" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F28" t="s" s="20">
+      <c r="F28" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G28" t="s" s="24">
+      <c r="G28" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" ht="15.5" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-    </row>
-    <row r="30" ht="15.5" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" ht="15.5" customHeight="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32" ht="15.5" customHeight="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-    </row>
-    <row r="33" ht="15.5" customHeight="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-    </row>
-    <row r="34" ht="15.5" customHeight="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
-    </row>
-    <row r="35" ht="15.5" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" ht="15.5" customHeight="1">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" ht="15.5" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" ht="15.5" customHeight="1">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
-    </row>
-    <row r="39" ht="15.5" customHeight="1">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
-    </row>
-    <row r="40" ht="15.5" customHeight="1">
-      <c r="A40" s="34"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
-    </row>
-    <row r="41" ht="15.5" customHeight="1">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-    </row>
-    <row r="42" ht="15.5" customHeight="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
-    </row>
-    <row r="43" ht="15.5" customHeight="1">
-      <c r="A43" s="34"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
-    </row>
-    <row r="44" ht="15.5" customHeight="1">
-      <c r="A44" s="34"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-    </row>
-    <row r="45" ht="15.5" customHeight="1">
-      <c r="A45" s="34"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
-    </row>
-    <row r="46" ht="15.5" customHeight="1">
-      <c r="A46" s="34"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
-    </row>
-    <row r="47" ht="15.5" customHeight="1">
-      <c r="A47" s="34"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="36"/>
-    </row>
-    <row r="48" ht="15.5" customHeight="1">
-      <c r="A48" s="34"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
-    </row>
-    <row r="49" ht="15.5" customHeight="1">
-      <c r="A49" s="34"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="36"/>
-    </row>
-    <row r="50" ht="15.5" customHeight="1">
-      <c r="A50" s="34"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="36"/>
-    </row>
-    <row r="51" ht="15.5" customHeight="1">
-      <c r="A51" s="34"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
-    </row>
-    <row r="52" ht="15.5" customHeight="1">
-      <c r="A52" s="34"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="36"/>
-    </row>
-    <row r="53" ht="15.5" customHeight="1">
-      <c r="A53" s="34"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="36"/>
-    </row>
-    <row r="54" ht="15.5" customHeight="1">
-      <c r="A54" s="34"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="36"/>
-    </row>
-    <row r="55" ht="15.5" customHeight="1">
-      <c r="A55" s="34"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="36"/>
-    </row>
-    <row r="56" ht="15.5" customHeight="1">
-      <c r="A56" s="34"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="36"/>
-    </row>
-    <row r="57" ht="15.5" customHeight="1">
-      <c r="A57" s="34"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="36"/>
-    </row>
-    <row r="58" ht="15.5" customHeight="1">
-      <c r="A58" s="34"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="36"/>
-    </row>
-    <row r="59" ht="15.5" customHeight="1">
-      <c r="A59" s="34"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="36"/>
-    </row>
-    <row r="60" ht="15.5" customHeight="1">
-      <c r="A60" s="34"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="36"/>
-    </row>
-    <row r="61" ht="15.5" customHeight="1">
-      <c r="A61" s="34"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="36"/>
-    </row>
-    <row r="62" ht="15.5" customHeight="1">
-      <c r="A62" s="34"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="36"/>
-    </row>
-    <row r="63" ht="15.5" customHeight="1">
-      <c r="A63" s="34"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="36"/>
-    </row>
-    <row r="64" ht="15.5" customHeight="1">
-      <c r="A64" s="34"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="36"/>
-    </row>
-    <row r="65" ht="15.5" customHeight="1">
-      <c r="A65" s="34"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="36"/>
-    </row>
-    <row r="66" ht="15.5" customHeight="1">
-      <c r="A66" s="34"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="36"/>
-    </row>
-    <row r="67" ht="15.5" customHeight="1">
-      <c r="A67" s="34"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="36"/>
-    </row>
-    <row r="68" ht="15.5" customHeight="1">
-      <c r="A68" s="34"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="36"/>
-    </row>
-    <row r="69" ht="15.5" customHeight="1">
-      <c r="A69" s="34"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="36"/>
-    </row>
-    <row r="70" ht="15.5" customHeight="1">
-      <c r="A70" s="34"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="36"/>
-    </row>
-    <row r="71" ht="15.5" customHeight="1">
-      <c r="A71" s="34"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="36"/>
-    </row>
-    <row r="72" ht="15.5" customHeight="1">
-      <c r="A72" s="34"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="36"/>
-    </row>
-    <row r="73" ht="15.5" customHeight="1">
-      <c r="A73" s="34"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="36"/>
-    </row>
-    <row r="74" ht="15.5" customHeight="1">
-      <c r="A74" s="34"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="36"/>
-    </row>
-    <row r="75" ht="15.5" customHeight="1">
-      <c r="A75" s="34"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="36"/>
-    </row>
-    <row r="76" ht="15.5" customHeight="1">
-      <c r="A76" s="34"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="36"/>
-    </row>
-    <row r="77" ht="15.5" customHeight="1">
-      <c r="A77" s="34"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="36"/>
-    </row>
-    <row r="78" ht="15.5" customHeight="1">
-      <c r="A78" s="34"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="36"/>
-    </row>
-    <row r="79" ht="15.5" customHeight="1">
-      <c r="A79" s="34"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="36"/>
-    </row>
-    <row r="80" ht="15.5" customHeight="1">
-      <c r="A80" s="34"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="36"/>
-    </row>
-    <row r="81" ht="15.5" customHeight="1">
-      <c r="A81" s="34"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="36"/>
-    </row>
-    <row r="82" ht="15.5" customHeight="1">
-      <c r="A82" s="34"/>
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="36"/>
-    </row>
-    <row r="83" ht="15.5" customHeight="1">
-      <c r="A83" s="34"/>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="36"/>
-    </row>
-    <row r="84" ht="15.5" customHeight="1">
-      <c r="A84" s="34"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="36"/>
-    </row>
-    <row r="85" ht="15.5" customHeight="1">
-      <c r="A85" s="34"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="36"/>
-    </row>
-    <row r="86" ht="15.5" customHeight="1">
-      <c r="A86" s="34"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="36"/>
-    </row>
-    <row r="87" ht="15.5" customHeight="1">
-      <c r="A87" s="34"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="36"/>
-    </row>
-    <row r="88" ht="15.5" customHeight="1">
-      <c r="A88" s="34"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="36"/>
-    </row>
-    <row r="89" ht="15.5" customHeight="1">
-      <c r="A89" s="34"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="36"/>
-    </row>
-    <row r="90" ht="15.5" customHeight="1">
-      <c r="A90" s="34"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="36"/>
-    </row>
-    <row r="91" ht="15.5" customHeight="1">
-      <c r="A91" s="34"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="36"/>
-    </row>
-    <row r="92" ht="15.5" customHeight="1">
-      <c r="A92" s="34"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="36"/>
-    </row>
-    <row r="93" ht="15.5" customHeight="1">
-      <c r="A93" s="34"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="36"/>
-    </row>
-    <row r="94" ht="15.5" customHeight="1">
-      <c r="A94" s="34"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="36"/>
-    </row>
-    <row r="95" ht="15.5" customHeight="1">
-      <c r="A95" s="34"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="36"/>
-    </row>
-    <row r="96" ht="15.5" customHeight="1">
-      <c r="A96" s="34"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="36"/>
-    </row>
-    <row r="97" ht="15.5" customHeight="1">
-      <c r="A97" s="34"/>
-      <c r="B97" s="35"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="36"/>
-    </row>
-    <row r="98" ht="15.5" customHeight="1">
-      <c r="A98" s="34"/>
-      <c r="B98" s="35"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="36"/>
-    </row>
-    <row r="99" ht="15.5" customHeight="1">
-      <c r="A99" s="34"/>
-      <c r="B99" s="35"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="36"/>
-    </row>
-    <row r="100" ht="15.5" customHeight="1">
-      <c r="A100" s="34"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="36"/>
-    </row>
-    <row r="101" ht="15.5" customHeight="1">
-      <c r="A101" s="34"/>
-      <c r="B101" s="35"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="36"/>
-    </row>
-    <row r="102" ht="15.5" customHeight="1">
-      <c r="A102" s="34"/>
-      <c r="B102" s="35"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="36"/>
-    </row>
-    <row r="103" ht="15.5" customHeight="1">
-      <c r="A103" s="34"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="36"/>
-    </row>
-    <row r="104" ht="15.5" customHeight="1">
-      <c r="A104" s="34"/>
-      <c r="B104" s="35"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="36"/>
-    </row>
-    <row r="105" ht="15.5" customHeight="1">
-      <c r="A105" s="34"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="35"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="36"/>
-    </row>
-    <row r="106" ht="15.5" customHeight="1">
-      <c r="A106" s="34"/>
-      <c r="B106" s="35"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="35"/>
-      <c r="F106" s="35"/>
-      <c r="G106" s="36"/>
-    </row>
-    <row r="107" ht="15.5" customHeight="1">
-      <c r="A107" s="34"/>
-      <c r="B107" s="35"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="35"/>
-      <c r="F107" s="35"/>
-      <c r="G107" s="36"/>
-    </row>
-    <row r="108" ht="15.5" customHeight="1">
-      <c r="A108" s="34"/>
-      <c r="B108" s="35"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="35"/>
-      <c r="F108" s="35"/>
-      <c r="G108" s="36"/>
-    </row>
-    <row r="109" ht="15.5" customHeight="1">
-      <c r="A109" s="34"/>
-      <c r="B109" s="35"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="35"/>
-      <c r="F109" s="35"/>
-      <c r="G109" s="36"/>
-    </row>
-    <row r="110" ht="15.5" customHeight="1">
-      <c r="A110" s="34"/>
-      <c r="B110" s="35"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="36"/>
-    </row>
-    <row r="111" ht="15.5" customHeight="1">
-      <c r="A111" s="34"/>
-      <c r="B111" s="35"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="36"/>
-    </row>
-    <row r="112" ht="15.5" customHeight="1">
-      <c r="A112" s="34"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="36"/>
-    </row>
-    <row r="113" ht="15.5" customHeight="1">
-      <c r="A113" s="34"/>
-      <c r="B113" s="35"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="36"/>
-    </row>
-    <row r="114" ht="15.5" customHeight="1">
-      <c r="A114" s="34"/>
-      <c r="B114" s="35"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="35"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="36"/>
-    </row>
-    <row r="115" ht="15.5" customHeight="1">
-      <c r="A115" s="34"/>
-      <c r="B115" s="35"/>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="35"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="36"/>
-    </row>
-    <row r="116" ht="15.5" customHeight="1">
-      <c r="A116" s="34"/>
-      <c r="B116" s="35"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="35"/>
-      <c r="F116" s="35"/>
-      <c r="G116" s="36"/>
-    </row>
-    <row r="117" ht="15.5" customHeight="1">
-      <c r="A117" s="34"/>
-      <c r="B117" s="35"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="35"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="36"/>
-    </row>
-    <row r="118" ht="15.5" customHeight="1">
-      <c r="A118" s="34"/>
-      <c r="B118" s="35"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="35"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="36"/>
-    </row>
-    <row r="119" ht="15.5" customHeight="1">
-      <c r="A119" s="34"/>
-      <c r="B119" s="35"/>
-      <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="35"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="36"/>
-    </row>
-    <row r="120" ht="15.5" customHeight="1">
-      <c r="A120" s="34"/>
-      <c r="B120" s="35"/>
-      <c r="C120" s="35"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="35"/>
-      <c r="F120" s="35"/>
-      <c r="G120" s="36"/>
-    </row>
-    <row r="121" ht="15.5" customHeight="1">
-      <c r="A121" s="34"/>
-      <c r="B121" s="35"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="35"/>
-      <c r="F121" s="35"/>
-      <c r="G121" s="36"/>
-    </row>
-    <row r="122" ht="15.5" customHeight="1">
-      <c r="A122" s="34"/>
-      <c r="B122" s="35"/>
-      <c r="C122" s="35"/>
-      <c r="D122" s="35"/>
-      <c r="E122" s="35"/>
-      <c r="F122" s="35"/>
-      <c r="G122" s="36"/>
-    </row>
-    <row r="123" ht="15.5" customHeight="1">
-      <c r="A123" s="34"/>
-      <c r="B123" s="35"/>
-      <c r="C123" s="35"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="35"/>
-      <c r="F123" s="35"/>
-      <c r="G123" s="36"/>
-    </row>
-    <row r="124" ht="15.5" customHeight="1">
-      <c r="A124" s="34"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="35"/>
-      <c r="F124" s="35"/>
-      <c r="G124" s="36"/>
-    </row>
-    <row r="125" ht="15.5" customHeight="1">
-      <c r="A125" s="34"/>
-      <c r="B125" s="35"/>
-      <c r="C125" s="35"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="35"/>
-      <c r="F125" s="35"/>
-      <c r="G125" s="36"/>
-    </row>
-    <row r="126" ht="15.5" customHeight="1">
-      <c r="A126" s="34"/>
-      <c r="B126" s="35"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="35"/>
-      <c r="F126" s="35"/>
-      <c r="G126" s="36"/>
-    </row>
-    <row r="127" ht="15.5" customHeight="1">
-      <c r="A127" s="37"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="38"/>
-      <c r="D127" s="38"/>
-      <c r="E127" s="38"/>
-      <c r="F127" s="38"/>
-      <c r="G127" s="39"/>
+    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="30"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="28"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="28"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="28"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="28"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="30"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="30"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="28"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="30"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="28"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="30"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="28"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="30"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="28"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="30"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="28"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="30"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="28"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="30"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="28"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="30"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="28"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="30"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="28"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="30"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="28"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="30"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="28"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="30"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="28"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="30"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="28"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="30"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="28"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="30"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="28"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="30"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="28"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="30"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="28"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="30"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="28"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="30"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="28"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="30"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="28"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="30"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="28"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="30"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="30"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="28"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="30"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="28"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="30"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="28"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="30"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="28"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="30"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="28"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="30"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="28"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="30"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="28"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="30"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="28"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="30"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="28"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="30"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="28"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="30"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="28"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="30"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="28"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="30"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="28"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="30"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="28"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="30"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="28"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="30"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="28"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="30"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="28"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="30"/>
+    </row>
+    <row r="95" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="28"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="30"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="28"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="30"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="28"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="30"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="28"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="30"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="28"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="30"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="28"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="30"/>
+    </row>
+    <row r="101" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="28"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="30"/>
+    </row>
+    <row r="102" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="28"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="30"/>
+    </row>
+    <row r="103" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="28"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="30"/>
+    </row>
+    <row r="104" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="28"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="30"/>
+    </row>
+    <row r="105" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="28"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="30"/>
+    </row>
+    <row r="106" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="28"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="30"/>
+    </row>
+    <row r="107" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="28"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="30"/>
+    </row>
+    <row r="108" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="28"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="30"/>
+    </row>
+    <row r="109" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="28"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="30"/>
+    </row>
+    <row r="110" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="28"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="30"/>
+    </row>
+    <row r="111" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="28"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="30"/>
+    </row>
+    <row r="112" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="28"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="30"/>
+    </row>
+    <row r="113" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="28"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="30"/>
+    </row>
+    <row r="114" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="28"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="30"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="28"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="30"/>
+    </row>
+    <row r="116" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="28"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="30"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="28"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="30"/>
+    </row>
+    <row r="118" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="28"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="30"/>
+    </row>
+    <row r="119" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="28"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="30"/>
+    </row>
+    <row r="120" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="28"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="30"/>
+    </row>
+    <row r="121" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="28"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="30"/>
+    </row>
+    <row r="122" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="28"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="30"/>
+    </row>
+    <row r="123" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="28"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="30"/>
+    </row>
+    <row r="124" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="28"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="30"/>
+    </row>
+    <row r="125" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="28"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="30"/>
+    </row>
+    <row r="126" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="28"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="30"/>
+    </row>
+    <row r="127" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="31"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G2"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" location="" tooltip="" display="dchai2@uci.edu"/>
-    <hyperlink ref="B6" r:id="rId2" location="" tooltip="" display="https://github.com/Danny7226"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
